--- a/docs/CS运算符表.xlsx
+++ b/docs/CS运算符表.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="13155"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8565"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="61">
   <si>
     <t>符号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -263,6 +263,10 @@
   </si>
   <si>
     <t>右</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Covariant Script 运算符表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -295,12 +299,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -313,10 +332,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -633,333 +652,309 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="A1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1">
-        <v>9</v>
-      </c>
-      <c r="C3" s="1">
-        <v>9</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0</v>
-      </c>
-      <c r="E3" s="1">
-        <v>9</v>
-      </c>
-      <c r="F3" s="1">
-        <v>9</v>
-      </c>
-      <c r="G3" s="1">
-        <v>9</v>
-      </c>
-      <c r="H3" s="1">
-        <v>9</v>
-      </c>
-      <c r="I3" s="1">
-        <v>7</v>
-      </c>
-      <c r="J3" s="1">
-        <v>7</v>
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1">
+        <v>9</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>9</v>
+      </c>
+      <c r="F5" s="1">
+        <v>9</v>
+      </c>
+      <c r="G5" s="1">
+        <v>9</v>
+      </c>
+      <c r="H5" s="1">
+        <v>9</v>
+      </c>
+      <c r="I5" s="1">
         <v>7</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J5" s="1"/>
+      <c r="J5" s="1">
+        <v>7</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J6" s="1"/>
+        <v>53</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="1">
-        <v>10</v>
-      </c>
-      <c r="C7" s="1">
-        <v>10</v>
-      </c>
-      <c r="D7" s="1">
-        <v>11</v>
-      </c>
-      <c r="E7" s="1">
-        <v>11</v>
-      </c>
-      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="1">
-        <v>12</v>
-      </c>
-      <c r="H7" s="1">
-        <v>16</v>
-      </c>
-      <c r="I7" s="1">
-        <v>1</v>
+      <c r="G7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="1">
+        <v>10</v>
+      </c>
+      <c r="C9" s="1">
+        <v>10</v>
+      </c>
+      <c r="D9" s="1">
+        <v>11</v>
+      </c>
+      <c r="E9" s="1">
+        <v>11</v>
+      </c>
+      <c r="F9" s="1">
+        <v>12</v>
+      </c>
+      <c r="G9" s="1">
+        <v>12</v>
+      </c>
+      <c r="H9" s="1">
+        <v>16</v>
+      </c>
+      <c r="I9" s="1">
         <v>1</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F10" s="2"/>
+        <v>59</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="G10" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
+        <v>58</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="J10" s="1"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="1">
-        <v>8</v>
-      </c>
-      <c r="C11" s="1">
-        <v>13</v>
-      </c>
-      <c r="D11" s="1">
-        <v>13</v>
-      </c>
-      <c r="E11" s="1">
-        <v>14</v>
-      </c>
-      <c r="F11" s="1">
-        <v>15</v>
-      </c>
-      <c r="G11" s="1">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -967,36 +962,88 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>55</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="2"/>
       <c r="G12" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="1">
+        <v>8</v>
+      </c>
+      <c r="C13" s="1">
+        <v>13</v>
+      </c>
+      <c r="D13" s="1">
+        <v>13</v>
+      </c>
+      <c r="E13" s="1">
+        <v>14</v>
+      </c>
+      <c r="F13" s="1">
+        <v>15</v>
+      </c>
+      <c r="G13" s="1">
+        <v>17</v>
+      </c>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="E10:F10"/>
+  <mergeCells count="2">
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="A1:J2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/docs/CS运算符表.xlsx
+++ b/docs/CS运算符表.xlsx
@@ -1043,7 +1043,10 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
-  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;CCovariant Script编程语言 http://covscript.org</oddHeader>
+  </headerFooter>
 </worksheet>
 </file>
--- a/docs/CS运算符表.xlsx
+++ b/docs/CS运算符表.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\covscript\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="67">
   <si>
     <t>符号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,10 +50,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>乘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>除</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -267,6 +263,34 @@
   </si>
   <si>
     <t>Covariant Script 运算符表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请内存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"new"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>箭头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"-&gt;"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>右</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乘/解引用</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -328,11 +352,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -655,67 +685,77 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection sqref="A1:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="7.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="9" style="3"/>
+    <col min="9" max="9" width="10.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="3"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
+      <c r="A1" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="D3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="I3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -723,31 +763,31 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="D4" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="I4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -787,31 +827,31 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="J6" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -825,54 +865,58 @@
         <v>5</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="F7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J7" s="1"/>
+      <c r="I7" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="F8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J8" s="1"/>
+      <c r="I8" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
@@ -899,64 +943,70 @@
       <c r="H9" s="1">
         <v>16</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9" s="2">
+        <v>16</v>
+      </c>
+      <c r="J9" s="1">
         <v>1</v>
       </c>
-      <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F10" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="J10" s="1"/>
+      <c r="I10" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H11" s="1"/>
+      <c r="H11" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
     </row>
@@ -965,22 +1015,24 @@
         <v>0</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="F12" s="4"/>
+      <c r="G12" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H12" s="1"/>
+      <c r="H12" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
@@ -1006,7 +1058,9 @@
       <c r="G13" s="1">
         <v>17</v>
       </c>
-      <c r="H13" s="1"/>
+      <c r="H13" s="1">
+        <v>17</v>
+      </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
     </row>
@@ -1015,24 +1069,26 @@
         <v>3</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="D14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="F14" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H14" s="1"/>
+        <v>54</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
     </row>
@@ -1043,8 +1099,8 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
-  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;CCovariant Script编程语言 http://covscript.org</oddHeader>
   </headerFooter>

--- a/docs/CS运算符表.xlsx
+++ b/docs/CS运算符表.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="71">
   <si>
     <t>符号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -198,99 +198,115 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>“++”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“--”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>隐式符号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"typeid"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>右</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>右</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>右</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>右</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请内存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"new"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>箭头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"-&gt;"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>右</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乘/解引用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Covariant Script 运算符表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lambda</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>类型信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>“++”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>“--”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>隐式符号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"typeid"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>左</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>左</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>左</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>左</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>左</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>右</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>右</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>右</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>右</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Covariant Script 运算符表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>申请内存</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"new"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>箭头</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"-&gt;"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>右</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>乘/解引用</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -356,13 +372,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -690,19 +706,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="9" style="3"/>
-    <col min="9" max="9" width="10.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="7.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="9" style="2"/>
+    <col min="8" max="8" width="7.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -727,375 +744,388 @@
       <c r="J2" s="4"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="3" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J4" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="3">
         <v>9</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="3">
         <v>9</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="3">
         <v>0</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="3">
         <v>9</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="3">
         <v>9</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="3">
         <v>9</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="3">
         <v>9</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="3">
         <v>7</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5" s="3">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H6" s="1" t="s">
+      <c r="I6" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="J6" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="3">
+        <v>10</v>
+      </c>
+      <c r="C9" s="3">
+        <v>10</v>
+      </c>
+      <c r="D9" s="3">
+        <v>11</v>
+      </c>
+      <c r="E9" s="3">
+        <v>11</v>
+      </c>
+      <c r="F9" s="3">
+        <v>12</v>
+      </c>
+      <c r="G9" s="3">
+        <v>12</v>
+      </c>
+      <c r="H9" s="3">
+        <v>17</v>
+      </c>
+      <c r="I9" s="1">
+        <v>17</v>
+      </c>
+      <c r="J9" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H11" s="4"/>
+      <c r="I11" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="3">
+        <v>8</v>
+      </c>
+      <c r="C13" s="3">
+        <v>13</v>
+      </c>
+      <c r="D13" s="3">
+        <v>13</v>
+      </c>
+      <c r="E13" s="3">
+        <v>14</v>
+      </c>
+      <c r="F13" s="3">
+        <v>15</v>
+      </c>
+      <c r="G13" s="3">
+        <v>1</v>
+      </c>
+      <c r="H13" s="3">
+        <v>14</v>
+      </c>
+      <c r="I13" s="3">
+        <v>16</v>
+      </c>
+      <c r="J13" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="1">
-        <v>10</v>
-      </c>
-      <c r="C9" s="1">
-        <v>10</v>
-      </c>
-      <c r="D9" s="1">
-        <v>11</v>
-      </c>
-      <c r="E9" s="1">
-        <v>11</v>
-      </c>
-      <c r="F9" s="1">
-        <v>12</v>
-      </c>
-      <c r="G9" s="1">
-        <v>12</v>
-      </c>
-      <c r="H9" s="1">
-        <v>16</v>
-      </c>
-      <c r="I9" s="2">
-        <v>16</v>
-      </c>
-      <c r="J9" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H11" s="1" t="s">
+      <c r="C14" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J14" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" s="1">
-        <v>8</v>
-      </c>
-      <c r="C13" s="1">
-        <v>13</v>
-      </c>
-      <c r="D13" s="1">
-        <v>13</v>
-      </c>
-      <c r="E13" s="1">
-        <v>14</v>
-      </c>
-      <c r="F13" s="1">
-        <v>15</v>
-      </c>
-      <c r="G13" s="1">
-        <v>17</v>
-      </c>
-      <c r="H13" s="1">
-        <v>17</v>
-      </c>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="E12:F12"/>
+  <mergeCells count="3">
     <mergeCell ref="A1:J2"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="G11:H11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/docs/CS运算符表.xlsx
+++ b/docs/CS运算符表.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="76">
   <si>
     <t>符号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,10 +46,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>减</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>除</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -258,11 +254,63 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>"new"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>箭头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"-&gt;"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>右</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乘/解引用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Covariant Script 运算符表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lambda</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>申请内存</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"new"</t>
+    <t>"gcnew"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -270,27 +318,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>箭头</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"-&gt;"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>右</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>乘/解引用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Covariant Script 运算符表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lambda</t>
+    <t>变量定义</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -298,15 +326,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型信息</t>
+    <t>减/负号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -698,28 +718,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:J2"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.875" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="9" style="2"/>
+    <col min="5" max="5" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9" style="2"/>
     <col min="8" max="8" width="7.125" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="2"/>
+    <col min="10" max="11" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -730,8 +751,9 @@
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1" s="4"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -742,72 +764,79 @@
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K2" s="4"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="D3" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>29</v>
-      </c>
       <c r="I3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K3" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="D4" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="I4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="J4" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K4" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
@@ -818,7 +847,7 @@
         <v>9</v>
       </c>
       <c r="D5" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" s="3">
         <v>9</v>
@@ -838,40 +867,46 @@
       <c r="J5" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K5" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F6" s="3" t="s">
+      <c r="G6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H6" s="3" t="s">
+      <c r="I6" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="I6" s="3" t="s">
-        <v>51</v>
-      </c>
       <c r="J6" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>1</v>
       </c>
@@ -879,63 +914,69 @@
         <v>4</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>6</v>
-      </c>
       <c r="F7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="H7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="I7" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="D8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="E8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="F8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="H8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>18</v>
-      </c>
       <c r="I8" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>2</v>
       </c>
@@ -964,100 +1005,106 @@
         <v>17</v>
       </c>
       <c r="J9" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="K9" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F10" s="3" t="s">
+      <c r="H10" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>55</v>
-      </c>
       <c r="I10" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="E11" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="G11" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="H11" s="4"/>
-      <c r="I11" s="3" t="s">
-        <v>70</v>
-      </c>
+      <c r="H11" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I11" s="4"/>
       <c r="J11" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+      <c r="K11" s="3"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C12" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="E12" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>45</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
-      <c r="H12" s="3" t="s">
-        <v>68</v>
-      </c>
+      <c r="H12" s="4"/>
       <c r="I12" s="3" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+      <c r="K12" s="3"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>2</v>
       </c>
@@ -1071,66 +1118,68 @@
         <v>13</v>
       </c>
       <c r="E13" s="3">
+        <v>20</v>
+      </c>
+      <c r="F13" s="3">
         <v>14</v>
       </c>
-      <c r="F13" s="3">
+      <c r="G13" s="3">
         <v>15</v>
       </c>
-      <c r="G13" s="3">
-        <v>1</v>
-      </c>
       <c r="H13" s="3">
+        <v>2</v>
+      </c>
+      <c r="I13" s="3">
         <v>14</v>
-      </c>
-      <c r="I13" s="3">
-        <v>16</v>
       </c>
       <c r="J13" s="3">
         <v>16</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K13" s="3"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>53</v>
-      </c>
       <c r="D14" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>53</v>
-      </c>
       <c r="G14" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I14" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>53</v>
-      </c>
       <c r="J14" s="3" t="s">
-        <v>60</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="K14" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A1:J2"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="A1:K2"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="E12:H12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;CCovariant Script编程语言 http://covscript.org</oddHeader>
   </headerFooter>

--- a/docs/CS运算符表.xlsx
+++ b/docs/CS运算符表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8565"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8565" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
   <si>
     <t>符号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -327,13 +327,77 @@
   </si>
   <si>
     <t>减/负号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加等于</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>减等于</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乘等于</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>除等于</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取余等于</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乘方等于</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"+="</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"-="</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"*="</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"/="</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"%="</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"^="</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -717,11 +781,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -732,13 +796,16 @@
     <col min="4" max="4" width="9.75" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="9" style="2"/>
-    <col min="8" max="8" width="7.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.25" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="2"/>
+    <col min="12" max="14" width="9" style="2"/>
+    <col min="15" max="15" width="10.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>63</v>
       </c>
@@ -752,8 +819,13 @@
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -765,113 +837,163 @@
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="3" t="s">
+      <c r="L3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="N3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I3" s="3" t="s">
+      <c r="O3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="P3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="K3" s="3" t="s">
-        <v>69</v>
-      </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="3" t="s">
+      <c r="L4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="N4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I4" s="3" t="s">
+      <c r="O4" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="P4" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="K4" s="3" t="s">
-        <v>57</v>
-      </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="3">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C5" s="3">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D5" s="3">
         <v>1</v>
       </c>
       <c r="E5" s="3">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1</v>
+      </c>
+      <c r="G5" s="3">
+        <v>1</v>
+      </c>
+      <c r="H5" s="3">
+        <v>1</v>
+      </c>
+      <c r="I5" s="3">
         <v>9</v>
       </c>
-      <c r="F5" s="3">
+      <c r="J5" s="3">
         <v>9</v>
       </c>
-      <c r="G5" s="3">
+      <c r="K5" s="3">
         <v>9</v>
       </c>
-      <c r="H5" s="3">
+      <c r="L5" s="3">
         <v>9</v>
       </c>
-      <c r="I5" s="3">
+      <c r="M5" s="3">
+        <v>9</v>
+      </c>
+      <c r="N5" s="3">
+        <v>9</v>
+      </c>
+      <c r="O5" s="3">
         <v>7</v>
       </c>
-      <c r="J5" s="3">
+      <c r="P5" s="3">
         <v>7</v>
       </c>
-      <c r="K5" s="3">
-        <v>16</v>
-      </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
@@ -879,302 +1001,365 @@
         <v>46</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K6" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="L6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N6" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F6" s="3" t="s">
+      <c r="O6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="P6" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>58</v>
-      </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>59</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I7" s="4"/>
       <c r="J7" s="3" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="K7" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="L7" s="3" t="s">
         <v>70</v>
       </c>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>60</v>
+        <v>43</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="K8" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L8" s="3" t="s">
         <v>71</v>
       </c>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B9" s="3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C9" s="3">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D9" s="3">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E9" s="3">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F9" s="3">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G9" s="3">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H9" s="3">
-        <v>17</v>
-      </c>
-      <c r="I9" s="1">
-        <v>17</v>
+        <v>2</v>
+      </c>
+      <c r="I9" s="3">
+        <v>14</v>
       </c>
       <c r="J9" s="3">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="K9" s="3">
         <v>16</v>
       </c>
+      <c r="L9" s="3">
+        <v>16</v>
+      </c>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>67</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K10" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L10" s="3" t="s">
         <v>72</v>
       </c>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>73</v>
+        <v>5</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="I11" s="4"/>
+        <v>11</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="J11" s="3" t="s">
-        <v>68</v>
+        <v>21</v>
       </c>
       <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="3" t="s">
-        <v>66</v>
+        <v>8</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B13" s="3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C13" s="3">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D13" s="3">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E13" s="3">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F13" s="3">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G13" s="3">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H13" s="3">
-        <v>2</v>
-      </c>
-      <c r="I13" s="3">
-        <v>14</v>
+        <v>17</v>
+      </c>
+      <c r="I13" s="1">
+        <v>17</v>
       </c>
       <c r="J13" s="3">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>67</v>
+        <v>54</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A1:K2"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="A1:P2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
